--- a/data/agri_production/vegetables.xlsx
+++ b/data/agri_production/vegetables.xlsx
@@ -342,7 +342,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>49254</xdr:colOff>
+      <xdr:colOff>314455</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -384,7 +384,7 @@
   <cols>
     <col min="1" max="1" width="19.921875" customWidth="true"/>
     <col min="4" max="4" width="28.13671875" customWidth="true"/>
-    <col min="5" max="5" width="42.2890625" customWidth="true"/>
+    <col min="5" max="5" width="38.3125" customWidth="true"/>
     <col min="2" max="2" width="10.4921875" customWidth="true"/>
     <col min="3" max="3" width="17.25" customWidth="true"/>
   </cols>
@@ -392,7 +392,7 @@
     <row r="6">
       <c r="A6" s="14" t="inlineStr">
         <is>
-          <t>Crop production in EU standard humidity [APRO_CPSH1__custom_7737950]</t>
+          <t>Crop production in EU standard humidity [apro_cpsh1__custom_7891749]</t>
         </is>
       </c>
     </row>
@@ -428,7 +428,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18/09/2023 23:00</t>
+          <t>13/10/2023 23:00</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Harvested production in EU standard humidity (1000 t)</t>
+          <t>Area (cultivation/harvested/production) (1000 ha)</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Harvested production in EU standard humidity (1000 t)</t>
+          <t>Area (cultivation/harvested/production) (1000 ha)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C49" s="16" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C51" s="16" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C53" s="16" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -1204,6 +1204,18 @@
         </is>
       </c>
       <c r="C57" s="16" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1246,12 +1258,14 @@
     <col min="19" max="19" width="4.98046875" customWidth="true"/>
     <col min="20" max="20" width="9.9609375" customWidth="true"/>
     <col min="21" max="21" width="4.98046875" customWidth="true"/>
+    <col min="22" max="22" width="9.9609375" customWidth="true"/>
+    <col min="23" max="23" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 09/10/2023 11:27:33 from [ESTAT]</t>
+          <t>Data extracted on 17/10/2023 16:30:45 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1277,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Crop production in EU standard humidity [APRO_CPSH1__custom_7737950]</t>
+          <t>Crop production in EU standard humidity [apro_cpsh1__custom_7891749]</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1289,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>18/09/2023 23:00</t>
+          <t>13/10/2023 23:00</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1327,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Harvested production in EU standard humidity (1000 t)</t>
+          <t>Area (cultivation/harvested/production) (1000 ha)</t>
         </is>
       </c>
     </row>
@@ -1327,100 +1341,110 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1532,6 +1556,16 @@
           <t/>
         </is>
       </c>
+      <c r="V10" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W10" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
@@ -1550,7 +1584,7 @@
         </is>
       </c>
       <c r="D11" s="19" t="n">
-        <v>62732.17</v>
+        <v>2069.41</v>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
@@ -1558,7 +1592,7 @@
         </is>
       </c>
       <c r="F11" s="19" t="n">
-        <v>65264.02</v>
+        <v>2074.06</v>
       </c>
       <c r="G11" s="10" t="inlineStr">
         <is>
@@ -1566,7 +1600,7 @@
         </is>
       </c>
       <c r="H11" s="19" t="n">
-        <v>65864.29</v>
+        <v>2167.53</v>
       </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
@@ -1574,7 +1608,7 @@
         </is>
       </c>
       <c r="J11" s="19" t="n">
-        <v>62738.67</v>
+        <v>2148.61</v>
       </c>
       <c r="K11" s="10" t="inlineStr">
         <is>
@@ -1582,15 +1616,15 @@
         </is>
       </c>
       <c r="L11" s="19" t="n">
-        <v>64469.87</v>
+        <v>2126.43</v>
       </c>
       <c r="M11" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N11" s="26" t="n">
-        <v>62652.6</v>
+      <c r="N11" s="19" t="n">
+        <v>2143.23</v>
       </c>
       <c r="O11" s="10" t="inlineStr">
         <is>
@@ -1598,7 +1632,7 @@
         </is>
       </c>
       <c r="P11" s="19" t="n">
-        <v>66047.64</v>
+        <v>2004.18</v>
       </c>
       <c r="Q11" s="10" t="inlineStr">
         <is>
@@ -1606,19 +1640,27 @@
         </is>
       </c>
       <c r="R11" s="19" t="n">
-        <v>58847.95</v>
+        <v>2049.89</v>
       </c>
       <c r="S11" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T11" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T11" s="19" t="n">
+        <v>1902.53</v>
       </c>
       <c r="U11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V11" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W11" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1630,10 +1672,8 @@
           <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B12" s="20" t="n">
+        <v>1791.58</v>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -1641,7 +1681,7 @@
         </is>
       </c>
       <c r="D12" s="20" t="n">
-        <v>60118.67</v>
+        <v>1954.41</v>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
@@ -1649,7 +1689,7 @@
         </is>
       </c>
       <c r="F12" s="20" t="n">
-        <v>62818.52</v>
+        <v>1960.92</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1657,7 +1697,7 @@
         </is>
       </c>
       <c r="H12" s="20" t="n">
-        <v>63233.59</v>
+        <v>2058.43</v>
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
@@ -1665,7 +1705,7 @@
         </is>
       </c>
       <c r="J12" s="20" t="n">
-        <v>60273.37</v>
+        <v>2034.21</v>
       </c>
       <c r="K12" s="11" t="inlineStr">
         <is>
@@ -1673,15 +1713,15 @@
         </is>
       </c>
       <c r="L12" s="20" t="n">
-        <v>62036.77</v>
+        <v>2013.75</v>
       </c>
       <c r="M12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N12" s="30" t="n">
-        <v>62652.6</v>
+      <c r="N12" s="20" t="n">
+        <v>2029.16</v>
       </c>
       <c r="O12" s="11" t="inlineStr">
         <is>
@@ -1689,7 +1729,7 @@
         </is>
       </c>
       <c r="P12" s="20" t="n">
-        <v>66047.64</v>
+        <v>2004.18</v>
       </c>
       <c r="Q12" s="11" t="inlineStr">
         <is>
@@ -1697,19 +1737,27 @@
         </is>
       </c>
       <c r="R12" s="20" t="n">
-        <v>58847.95</v>
+        <v>2049.89</v>
       </c>
       <c r="S12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T12" s="20" t="n">
+        <v>1902.53</v>
       </c>
       <c r="U12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1732,7 +1780,7 @@
         </is>
       </c>
       <c r="D13" s="19" t="n">
-        <v>62732.17</v>
+        <v>2069.41</v>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
@@ -1740,7 +1788,7 @@
         </is>
       </c>
       <c r="F13" s="19" t="n">
-        <v>65264.02</v>
+        <v>2074.06</v>
       </c>
       <c r="G13" s="10" t="inlineStr">
         <is>
@@ -1748,7 +1796,7 @@
         </is>
       </c>
       <c r="H13" s="19" t="n">
-        <v>65864.29</v>
+        <v>2167.53</v>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
@@ -1756,7 +1804,7 @@
         </is>
       </c>
       <c r="J13" s="19" t="n">
-        <v>62738.67</v>
+        <v>2148.61</v>
       </c>
       <c r="K13" s="10" t="inlineStr">
         <is>
@@ -1764,17 +1812,15 @@
         </is>
       </c>
       <c r="L13" s="19" t="n">
-        <v>64469.87</v>
+        <v>2126.43</v>
       </c>
       <c r="M13" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N13" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="N13" s="19" t="n">
+        <v>2143.23</v>
       </c>
       <c r="O13" s="10" t="inlineStr">
         <is>
@@ -1807,6 +1853,16 @@
         </is>
       </c>
       <c r="U13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V13" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W13" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1818,10 +1874,8 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B14" s="20" t="n">
+        <v>45.97</v>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
@@ -1829,7 +1883,7 @@
         </is>
       </c>
       <c r="D14" s="20" t="n">
-        <v>1942.51</v>
+        <v>47.05</v>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
@@ -1837,23 +1891,23 @@
         </is>
       </c>
       <c r="F14" s="20" t="n">
-        <v>2012.89</v>
+        <v>58.44</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H14" s="30" t="n">
-        <v>2104.8</v>
+      <c r="H14" s="20" t="n">
+        <v>59.63</v>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>p</t>
         </is>
       </c>
       <c r="J14" s="20" t="n">
-        <v>2040.57</v>
+        <v>64.29</v>
       </c>
       <c r="K14" s="11" t="inlineStr">
         <is>
@@ -1861,15 +1915,15 @@
         </is>
       </c>
       <c r="L14" s="20" t="n">
-        <v>2221.84</v>
+        <v>65.62</v>
       </c>
       <c r="M14" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N14" s="30" t="n">
-        <v>2187.9</v>
+      <c r="N14" s="20" t="n">
+        <v>67.33</v>
       </c>
       <c r="O14" s="11" t="inlineStr">
         <is>
@@ -1877,7 +1931,7 @@
         </is>
       </c>
       <c r="P14" s="20" t="n">
-        <v>2494.74</v>
+        <v>68.68</v>
       </c>
       <c r="Q14" s="11" t="inlineStr">
         <is>
@@ -1885,19 +1939,27 @@
         </is>
       </c>
       <c r="R14" s="20" t="n">
-        <v>2348.29</v>
+        <v>70.15</v>
       </c>
       <c r="S14" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T14" s="20" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="U14" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="T14" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="U14" s="11" t="inlineStr">
+      <c r="V14" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W14" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1910,7 +1972,7 @@
         </is>
       </c>
       <c r="B15" s="19" t="n">
-        <v>389.65</v>
+        <v>23.45</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1918,7 +1980,7 @@
         </is>
       </c>
       <c r="D15" s="19" t="n">
-        <v>433.79</v>
+        <v>19.55</v>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
@@ -1926,7 +1988,7 @@
         </is>
       </c>
       <c r="F15" s="19" t="n">
-        <v>664.21</v>
+        <v>25.57</v>
       </c>
       <c r="G15" s="10" t="inlineStr">
         <is>
@@ -1934,7 +1996,7 @@
         </is>
       </c>
       <c r="H15" s="19" t="n">
-        <v>554.91</v>
+        <v>38.84</v>
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
@@ -1942,15 +2004,15 @@
         </is>
       </c>
       <c r="J15" s="19" t="n">
-        <v>574.59</v>
+        <v>28.05</v>
       </c>
       <c r="K15" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L15" s="19" t="n">
-        <v>551.05</v>
+      <c r="L15" s="26" t="n">
+        <v>28.4</v>
       </c>
       <c r="M15" s="10" t="inlineStr">
         <is>
@@ -1958,7 +2020,7 @@
         </is>
       </c>
       <c r="N15" s="19" t="n">
-        <v>454.85</v>
+        <v>28.68</v>
       </c>
       <c r="O15" s="10" t="inlineStr">
         <is>
@@ -1966,7 +2028,7 @@
         </is>
       </c>
       <c r="P15" s="19" t="n">
-        <v>488.18</v>
+        <v>23.87</v>
       </c>
       <c r="Q15" s="10" t="inlineStr">
         <is>
@@ -1974,19 +2036,27 @@
         </is>
       </c>
       <c r="R15" s="19" t="n">
-        <v>451.82</v>
+        <v>24.56</v>
       </c>
       <c r="S15" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T15" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T15" s="19" t="n">
+        <v>20.65</v>
       </c>
       <c r="U15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V15" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W15" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1999,15 +2069,15 @@
         </is>
       </c>
       <c r="B16" s="20" t="n">
-        <v>221.58</v>
+        <v>8.56</v>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D16" s="30" t="n">
-        <v>183.6</v>
+      <c r="D16" s="20" t="n">
+        <v>9.21</v>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
@@ -2015,15 +2085,15 @@
         </is>
       </c>
       <c r="F16" s="20" t="n">
-        <v>227.91</v>
+        <v>9.19</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H16" s="20" t="n">
-        <v>241.69</v>
+      <c r="H16" s="30" t="n">
+        <v>10.2</v>
       </c>
       <c r="I16" s="11" t="inlineStr">
         <is>
@@ -2031,15 +2101,15 @@
         </is>
       </c>
       <c r="J16" s="20" t="n">
-        <v>198.86</v>
+        <v>10.24</v>
       </c>
       <c r="K16" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L16" s="20" t="n">
-        <v>226.34</v>
+      <c r="L16" s="30" t="n">
+        <v>10.4</v>
       </c>
       <c r="M16" s="11" t="inlineStr">
         <is>
@@ -2047,7 +2117,7 @@
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>252.48</v>
+        <v>10.22</v>
       </c>
       <c r="O16" s="11" t="inlineStr">
         <is>
@@ -2055,7 +2125,7 @@
         </is>
       </c>
       <c r="P16" s="20" t="n">
-        <v>275.32</v>
+        <v>11.14</v>
       </c>
       <c r="Q16" s="11" t="inlineStr">
         <is>
@@ -2063,19 +2133,27 @@
         </is>
       </c>
       <c r="R16" s="20" t="n">
-        <v>246.25</v>
+        <v>11.99</v>
       </c>
       <c r="S16" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T16" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T16" s="20" t="n">
+        <v>11.12</v>
       </c>
       <c r="U16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V16" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W16" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2088,7 +2166,7 @@
         </is>
       </c>
       <c r="B17" s="19" t="n">
-        <v>307.58</v>
+        <v>10.91</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -2096,15 +2174,15 @@
         </is>
       </c>
       <c r="D17" s="19" t="n">
-        <v>289.07</v>
+        <v>10.75</v>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F17" s="26" t="n">
-        <v>315.6</v>
+      <c r="F17" s="19" t="n">
+        <v>10.44</v>
       </c>
       <c r="G17" s="10" t="inlineStr">
         <is>
@@ -2112,7 +2190,7 @@
         </is>
       </c>
       <c r="H17" s="19" t="n">
-        <v>331.02</v>
+        <v>10.68</v>
       </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
@@ -2120,15 +2198,15 @@
         </is>
       </c>
       <c r="J17" s="19" t="n">
-        <v>278.84</v>
+        <v>11.32</v>
       </c>
       <c r="K17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L17" s="26" t="n">
-        <v>281.6</v>
+      <c r="L17" s="19" t="n">
+        <v>11.67</v>
       </c>
       <c r="M17" s="10" t="inlineStr">
         <is>
@@ -2136,7 +2214,7 @@
         </is>
       </c>
       <c r="N17" s="19" t="n">
-        <v>276.68</v>
+        <v>12.22</v>
       </c>
       <c r="O17" s="10" t="inlineStr">
         <is>
@@ -2144,7 +2222,7 @@
         </is>
       </c>
       <c r="P17" s="19" t="n">
-        <v>270.65</v>
+        <v>11.95</v>
       </c>
       <c r="Q17" s="10" t="inlineStr">
         <is>
@@ -2152,19 +2230,27 @@
         </is>
       </c>
       <c r="R17" s="19" t="n">
-        <v>244.62</v>
+        <v>11.78</v>
       </c>
       <c r="S17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T17" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T17" s="19" t="n">
+        <v>11.66</v>
       </c>
       <c r="U17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2177,7 +2263,7 @@
         </is>
       </c>
       <c r="B18" s="20" t="n">
-        <v>3702.62</v>
+        <v>109.06</v>
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
@@ -2185,15 +2271,15 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>3391.73</v>
+        <v>111.26</v>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F18" s="20" t="n">
-        <v>3672.66</v>
+      <c r="F18" s="30" t="n">
+        <v>110.9</v>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
@@ -2201,7 +2287,7 @@
         </is>
       </c>
       <c r="H18" s="20" t="n">
-        <v>3952.43</v>
+        <v>117.39</v>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
@@ -2209,7 +2295,7 @@
         </is>
       </c>
       <c r="J18" s="20" t="n">
-        <v>3449.76</v>
+        <v>124.96</v>
       </c>
       <c r="K18" s="11" t="inlineStr">
         <is>
@@ -2217,7 +2303,7 @@
         </is>
       </c>
       <c r="L18" s="20" t="n">
-        <v>3904.49</v>
+        <v>122.69</v>
       </c>
       <c r="M18" s="11" t="inlineStr">
         <is>
@@ -2225,7 +2311,7 @@
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>3887.98</v>
+        <v>123.86</v>
       </c>
       <c r="O18" s="11" t="inlineStr">
         <is>
@@ -2233,7 +2319,7 @@
         </is>
       </c>
       <c r="P18" s="20" t="n">
-        <v>4258.58</v>
+        <v>123.04</v>
       </c>
       <c r="Q18" s="11" t="inlineStr">
         <is>
@@ -2241,19 +2327,27 @@
         </is>
       </c>
       <c r="R18" s="20" t="n">
-        <v>3767.74</v>
+        <v>128.47</v>
       </c>
       <c r="S18" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T18" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T18" s="20" t="n">
+        <v>122.68</v>
       </c>
       <c r="U18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V18" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W18" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2266,7 +2360,7 @@
         </is>
       </c>
       <c r="B19" s="26" t="n">
-        <v>40.4</v>
+        <v>1.7</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -2274,15 +2368,15 @@
         </is>
       </c>
       <c r="D19" s="26" t="n">
-        <v>55.9</v>
+        <v>2.3</v>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F19" s="19" t="n">
-        <v>40.48</v>
+      <c r="F19" s="26" t="n">
+        <v>2.1</v>
       </c>
       <c r="G19" s="10" t="inlineStr">
         <is>
@@ -2290,7 +2384,7 @@
         </is>
       </c>
       <c r="H19" s="19" t="n">
-        <v>35.82</v>
+        <v>2.04</v>
       </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
@@ -2298,7 +2392,7 @@
         </is>
       </c>
       <c r="J19" s="19" t="n">
-        <v>39.44</v>
+        <v>2.35</v>
       </c>
       <c r="K19" s="10" t="inlineStr">
         <is>
@@ -2306,7 +2400,7 @@
         </is>
       </c>
       <c r="L19" s="19" t="n">
-        <v>58.45</v>
+        <v>2.09</v>
       </c>
       <c r="M19" s="10" t="inlineStr">
         <is>
@@ -2314,7 +2408,7 @@
         </is>
       </c>
       <c r="N19" s="19" t="n">
-        <v>52.55</v>
+        <v>2.06</v>
       </c>
       <c r="O19" s="10" t="inlineStr">
         <is>
@@ -2322,7 +2416,7 @@
         </is>
       </c>
       <c r="P19" s="19" t="n">
-        <v>44.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q19" s="10" t="inlineStr">
         <is>
@@ -2330,19 +2424,27 @@
         </is>
       </c>
       <c r="R19" s="19" t="n">
-        <v>37.98</v>
+        <v>1.62</v>
       </c>
       <c r="S19" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T19" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T19" s="19" t="n">
+        <v>1.45</v>
       </c>
       <c r="U19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V19" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W19" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2355,7 +2457,7 @@
         </is>
       </c>
       <c r="B20" s="30" t="n">
-        <v>127.3</v>
+        <v>4.1</v>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
@@ -2363,7 +2465,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>125.31</v>
+        <v>4.07</v>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
@@ -2371,7 +2473,7 @@
         </is>
       </c>
       <c r="F20" s="20" t="n">
-        <v>140.58</v>
+        <v>4.07</v>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
@@ -2379,7 +2481,7 @@
         </is>
       </c>
       <c r="H20" s="20" t="n">
-        <v>140.82</v>
+        <v>4.32</v>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
@@ -2387,7 +2489,7 @@
         </is>
       </c>
       <c r="J20" s="20" t="n">
-        <v>138.43</v>
+        <v>4.28</v>
       </c>
       <c r="K20" s="11" t="inlineStr">
         <is>
@@ -2395,7 +2497,7 @@
         </is>
       </c>
       <c r="L20" s="20" t="n">
-        <v>150.94</v>
+        <v>4.24</v>
       </c>
       <c r="M20" s="11" t="inlineStr">
         <is>
@@ -2403,7 +2505,7 @@
         </is>
       </c>
       <c r="N20" s="20" t="n">
-        <v>152.45</v>
+        <v>4.32</v>
       </c>
       <c r="O20" s="11" t="inlineStr">
         <is>
@@ -2411,27 +2513,35 @@
         </is>
       </c>
       <c r="P20" s="20" t="n">
-        <v>162.52</v>
+        <v>4.45</v>
       </c>
       <c r="Q20" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R20" s="30" t="n">
-        <v>155.3</v>
+      <c r="R20" s="20" t="n">
+        <v>4.54</v>
       </c>
       <c r="S20" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T20" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T20" s="20" t="n">
+        <v>4.41</v>
       </c>
       <c r="U20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V20" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W20" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2444,7 +2554,7 @@
         </is>
       </c>
       <c r="B21" s="19" t="n">
-        <v>3175.15</v>
+        <v>95.19</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -2452,15 +2562,15 @@
         </is>
       </c>
       <c r="D21" s="19" t="n">
-        <v>3093.16</v>
+        <v>97.59</v>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F21" s="19" t="n">
-        <v>2968.29</v>
+      <c r="F21" s="26" t="n">
+        <v>82.0</v>
       </c>
       <c r="G21" s="10" t="inlineStr">
         <is>
@@ -2468,15 +2578,15 @@
         </is>
       </c>
       <c r="H21" s="19" t="n">
-        <v>2794.47</v>
+        <v>81.69</v>
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J21" s="19" t="n">
-        <v>2668.73</v>
+      <c r="J21" s="26" t="n">
+        <v>82.7</v>
       </c>
       <c r="K21" s="10" t="inlineStr">
         <is>
@@ -2484,7 +2594,7 @@
         </is>
       </c>
       <c r="L21" s="19" t="n">
-        <v>2201.25</v>
+        <v>78.66</v>
       </c>
       <c r="M21" s="10" t="inlineStr">
         <is>
@@ -2492,7 +2602,7 @@
         </is>
       </c>
       <c r="N21" s="19" t="n">
-        <v>2450.91</v>
+        <v>69.52</v>
       </c>
       <c r="O21" s="10" t="inlineStr">
         <is>
@@ -2500,7 +2610,7 @@
         </is>
       </c>
       <c r="P21" s="19" t="n">
-        <v>2477.92</v>
+        <v>73.26</v>
       </c>
       <c r="Q21" s="10" t="inlineStr">
         <is>
@@ -2508,19 +2618,27 @@
         </is>
       </c>
       <c r="R21" s="19" t="n">
-        <v>2234.37</v>
+        <v>76.84</v>
       </c>
       <c r="S21" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T21" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T21" s="19" t="n">
+        <v>74.17</v>
       </c>
       <c r="U21" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V21" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W21" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2532,10 +2650,8 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B22" s="20" t="n">
+        <v>318.51</v>
       </c>
       <c r="C22" s="11" t="inlineStr">
         <is>
@@ -2543,7 +2659,7 @@
         </is>
       </c>
       <c r="D22" s="20" t="n">
-        <v>14123.24</v>
+        <v>355.81</v>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
@@ -2551,7 +2667,7 @@
         </is>
       </c>
       <c r="F22" s="20" t="n">
-        <v>15003.61</v>
+        <v>354.68</v>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
@@ -2559,7 +2675,7 @@
         </is>
       </c>
       <c r="H22" s="20" t="n">
-        <v>15039.96</v>
+        <v>373.77</v>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
@@ -2567,7 +2683,7 @@
         </is>
       </c>
       <c r="J22" s="20" t="n">
-        <v>14533.96</v>
+        <v>380.08</v>
       </c>
       <c r="K22" s="11" t="inlineStr">
         <is>
@@ -2575,7 +2691,7 @@
         </is>
       </c>
       <c r="L22" s="20" t="n">
-        <v>15438.91</v>
+        <v>372.88</v>
       </c>
       <c r="M22" s="11" t="inlineStr">
         <is>
@@ -2583,7 +2699,7 @@
         </is>
       </c>
       <c r="N22" s="20" t="n">
-        <v>14827.27</v>
+        <v>380.22</v>
       </c>
       <c r="O22" s="11" t="inlineStr">
         <is>
@@ -2591,7 +2707,7 @@
         </is>
       </c>
       <c r="P22" s="20" t="n">
-        <v>15927.02</v>
+        <v>380.98</v>
       </c>
       <c r="Q22" s="11" t="inlineStr">
         <is>
@@ -2599,19 +2715,27 @@
         </is>
       </c>
       <c r="R22" s="20" t="n">
-        <v>13868.56</v>
+        <v>396.57</v>
       </c>
       <c r="S22" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T22" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T22" s="20" t="n">
+        <v>366.85</v>
       </c>
       <c r="U22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V22" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W22" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2624,7 +2748,7 @@
         </is>
       </c>
       <c r="B23" s="19" t="n">
-        <v>5376.26</v>
+        <v>186.53</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
@@ -2632,7 +2756,7 @@
         </is>
       </c>
       <c r="D23" s="19" t="n">
-        <v>5297.41</v>
+        <v>243.11</v>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
@@ -2640,15 +2764,15 @@
         </is>
       </c>
       <c r="F23" s="19" t="n">
-        <v>5444.25</v>
+        <v>235.53</v>
       </c>
       <c r="G23" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H23" s="19" t="n">
-        <v>5549.35</v>
+      <c r="H23" s="26" t="n">
+        <v>249.5</v>
       </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
@@ -2656,15 +2780,15 @@
         </is>
       </c>
       <c r="J23" s="19" t="n">
-        <v>5653.68</v>
+        <v>259.14</v>
       </c>
       <c r="K23" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L23" s="26" t="n">
-        <v>5552.0</v>
+      <c r="L23" s="19" t="n">
+        <v>257.82</v>
       </c>
       <c r="M23" s="10" t="inlineStr">
         <is>
@@ -2672,35 +2796,43 @@
         </is>
       </c>
       <c r="N23" s="19" t="n">
-        <v>6033.35</v>
+        <v>256.18</v>
       </c>
       <c r="O23" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" s="19" t="n">
+        <v>277.36</v>
+      </c>
+      <c r="Q23" s="10" t="inlineStr">
+        <is>
           <t>b</t>
         </is>
       </c>
-      <c r="P23" s="19" t="n">
-        <v>6428.82</v>
-      </c>
-      <c r="Q23" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="R23" s="19" t="n">
-        <v>5924.74</v>
+        <v>288.32</v>
       </c>
       <c r="S23" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T23" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T23" s="19" t="n">
+        <v>274.63</v>
       </c>
       <c r="U23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V23" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W23" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2713,7 +2845,7 @@
         </is>
       </c>
       <c r="B24" s="20" t="n">
-        <v>149.49</v>
+        <v>8.11</v>
       </c>
       <c r="C24" s="11" t="inlineStr">
         <is>
@@ -2721,7 +2853,7 @@
         </is>
       </c>
       <c r="D24" s="20" t="n">
-        <v>189.25</v>
+        <v>6.03</v>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
@@ -2729,7 +2861,7 @@
         </is>
       </c>
       <c r="F24" s="20" t="n">
-        <v>191.32</v>
+        <v>8.55</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -2737,15 +2869,15 @@
         </is>
       </c>
       <c r="H24" s="20" t="n">
-        <v>178.79</v>
+        <v>9.62</v>
       </c>
       <c r="I24" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J24" s="30" t="n">
-        <v>184.9</v>
+      <c r="J24" s="20" t="n">
+        <v>9.42</v>
       </c>
       <c r="K24" s="11" t="inlineStr">
         <is>
@@ -2753,7 +2885,7 @@
         </is>
       </c>
       <c r="L24" s="20" t="n">
-        <v>165.67</v>
+        <v>9.77</v>
       </c>
       <c r="M24" s="11" t="inlineStr">
         <is>
@@ -2761,7 +2893,7 @@
         </is>
       </c>
       <c r="N24" s="20" t="n">
-        <v>200.19</v>
+        <v>8.71</v>
       </c>
       <c r="O24" s="11" t="inlineStr">
         <is>
@@ -2769,27 +2901,35 @@
         </is>
       </c>
       <c r="P24" s="20" t="n">
-        <v>168.62</v>
+        <v>8.44</v>
       </c>
       <c r="Q24" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R24" s="20" t="n">
-        <v>159.61</v>
+      <c r="R24" s="30" t="n">
+        <v>8.4</v>
       </c>
       <c r="S24" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T24" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T24" s="20" t="n">
+        <v>7.79</v>
       </c>
       <c r="U24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V24" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W24" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2801,10 +2941,8 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B25" s="19" t="n">
+        <v>349.31</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
@@ -2812,23 +2950,23 @@
         </is>
       </c>
       <c r="D25" s="19" t="n">
-        <v>13119.94</v>
+        <v>426.63</v>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>13313.76</v>
+      <c r="F25" s="26" t="n">
+        <v>422.9</v>
       </c>
       <c r="G25" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H25" s="19" t="n">
-        <v>12754.54</v>
+      <c r="H25" s="26" t="n">
+        <v>430.0</v>
       </c>
       <c r="I25" s="10" t="inlineStr">
         <is>
@@ -2836,7 +2974,7 @@
         </is>
       </c>
       <c r="J25" s="19" t="n">
-        <v>12648.24</v>
+        <v>418.38</v>
       </c>
       <c r="K25" s="10" t="inlineStr">
         <is>
@@ -2844,7 +2982,7 @@
         </is>
       </c>
       <c r="L25" s="19" t="n">
-        <v>12778.25</v>
+        <v>418.12</v>
       </c>
       <c r="M25" s="10" t="inlineStr">
         <is>
@@ -2852,7 +2990,7 @@
         </is>
       </c>
       <c r="N25" s="19" t="n">
-        <v>13185.73</v>
+        <v>420.86</v>
       </c>
       <c r="O25" s="10" t="inlineStr">
         <is>
@@ -2860,7 +2998,7 @@
         </is>
       </c>
       <c r="P25" s="19" t="n">
-        <v>13466.54</v>
+        <v>413.74</v>
       </c>
       <c r="Q25" s="10" t="inlineStr">
         <is>
@@ -2868,19 +3006,27 @@
         </is>
       </c>
       <c r="R25" s="19" t="n">
-        <v>12348.81</v>
+        <v>413.86</v>
       </c>
       <c r="S25" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T25" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T25" s="19" t="n">
+        <v>385.56</v>
       </c>
       <c r="U25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V25" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W25" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2893,23 +3039,23 @@
         </is>
       </c>
       <c r="B26" s="20" t="n">
-        <v>105.62</v>
+        <v>2.99</v>
       </c>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D26" s="30" t="n">
-        <v>101.1</v>
+      <c r="D26" s="20" t="n">
+        <v>2.91</v>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F26" s="20" t="n">
-        <v>96.49</v>
+      <c r="F26" s="30" t="n">
+        <v>2.9</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -2917,15 +3063,15 @@
         </is>
       </c>
       <c r="H26" s="20" t="n">
-        <v>83.62</v>
+        <v>2.92</v>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J26" s="30" t="n">
-        <v>83.4</v>
+      <c r="J26" s="20" t="n">
+        <v>2.79</v>
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
@@ -2933,15 +3079,15 @@
         </is>
       </c>
       <c r="L26" s="20" t="n">
-        <v>78.35</v>
+        <v>2.73</v>
       </c>
       <c r="M26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N26" s="30" t="n">
-        <v>76.7</v>
+      <c r="N26" s="20" t="n">
+        <v>2.68</v>
       </c>
       <c r="O26" s="11" t="inlineStr">
         <is>
@@ -2949,27 +3095,35 @@
         </is>
       </c>
       <c r="P26" s="20" t="n">
-        <v>79.39</v>
+        <v>2.69</v>
       </c>
       <c r="Q26" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R26" s="20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S26" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="R26" s="30" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="S26" s="11" t="inlineStr">
+      <c r="T26" s="20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U26" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="T26" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="U26" s="11" t="inlineStr">
+      <c r="V26" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2982,7 +3136,7 @@
         </is>
       </c>
       <c r="B27" s="26" t="n">
-        <v>84.8</v>
+        <v>3.6</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
@@ -2990,7 +3144,7 @@
         </is>
       </c>
       <c r="D27" s="26" t="n">
-        <v>75.4</v>
+        <v>2.8</v>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
@@ -2998,7 +3152,7 @@
         </is>
       </c>
       <c r="F27" s="26" t="n">
-        <v>77.3</v>
+        <v>2.8</v>
       </c>
       <c r="G27" s="10" t="inlineStr">
         <is>
@@ -3006,7 +3160,7 @@
         </is>
       </c>
       <c r="H27" s="26" t="n">
-        <v>60.8</v>
+        <v>2.7</v>
       </c>
       <c r="I27" s="10" t="inlineStr">
         <is>
@@ -3014,23 +3168,23 @@
         </is>
       </c>
       <c r="J27" s="26" t="n">
-        <v>58.2</v>
+        <v>2.4</v>
       </c>
       <c r="K27" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L27" s="19" t="n">
-        <v>76.84</v>
+      <c r="L27" s="26" t="n">
+        <v>2.8</v>
       </c>
       <c r="M27" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N27" s="26" t="n">
-        <v>85.0</v>
+      <c r="N27" s="19" t="n">
+        <v>3.28</v>
       </c>
       <c r="O27" s="10" t="inlineStr">
         <is>
@@ -3038,27 +3192,35 @@
         </is>
       </c>
       <c r="P27" s="26" t="n">
-        <v>65.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q27" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R27" s="19" t="n">
-        <v>67.21</v>
+      <c r="R27" s="26" t="n">
+        <v>3.0</v>
       </c>
       <c r="S27" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T27" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T27" s="19" t="n">
+        <v>3.26</v>
       </c>
       <c r="U27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V27" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W27" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3070,16 +3232,16 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B28" s="30" t="n">
-        <v>250.8</v>
+      <c r="B28" s="20" t="n">
+        <v>11.72</v>
       </c>
       <c r="C28" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D28" s="30" t="n">
-        <v>194.1</v>
+      <c r="D28" s="20" t="n">
+        <v>11.06</v>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
@@ -3087,7 +3249,7 @@
         </is>
       </c>
       <c r="F28" s="20" t="n">
-        <v>214.04</v>
+        <v>9.95</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -3095,7 +3257,7 @@
         </is>
       </c>
       <c r="H28" s="20" t="n">
-        <v>175.94</v>
+        <v>10.98</v>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
@@ -3103,7 +3265,7 @@
         </is>
       </c>
       <c r="J28" s="20" t="n">
-        <v>196.37</v>
+        <v>10.13</v>
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
@@ -3111,7 +3273,7 @@
         </is>
       </c>
       <c r="L28" s="20" t="n">
-        <v>218.33</v>
+        <v>11.04</v>
       </c>
       <c r="M28" s="11" t="inlineStr">
         <is>
@@ -3119,7 +3281,7 @@
         </is>
       </c>
       <c r="N28" s="20" t="n">
-        <v>208.97</v>
+        <v>11.64</v>
       </c>
       <c r="O28" s="11" t="inlineStr">
         <is>
@@ -3127,27 +3289,35 @@
         </is>
       </c>
       <c r="P28" s="20" t="n">
-        <v>228.32</v>
+        <v>12.07</v>
       </c>
       <c r="Q28" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R28" s="30" t="n">
-        <v>246.8</v>
+      <c r="R28" s="20" t="n">
+        <v>11.94</v>
       </c>
       <c r="S28" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T28" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T28" s="20" t="n">
+        <v>12.49</v>
       </c>
       <c r="U28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V28" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W28" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3160,7 +3330,7 @@
         </is>
       </c>
       <c r="B29" s="19" t="n">
-        <v>1.89</v>
+        <v>0.06</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -3168,15 +3338,15 @@
         </is>
       </c>
       <c r="D29" s="19" t="n">
-        <v>1.74</v>
+        <v>0.07</v>
       </c>
       <c r="E29" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F29" s="26" t="n">
-        <v>1.7</v>
+      <c r="F29" s="19" t="n">
+        <v>0.07</v>
       </c>
       <c r="G29" s="10" t="inlineStr">
         <is>
@@ -3184,15 +3354,15 @@
         </is>
       </c>
       <c r="H29" s="19" t="n">
-        <v>1.84</v>
+        <v>0.11</v>
       </c>
       <c r="I29" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J29" s="26" t="n">
-        <v>2.7</v>
+      <c r="J29" s="19" t="n">
+        <v>0.13</v>
       </c>
       <c r="K29" s="10" t="inlineStr">
         <is>
@@ -3200,7 +3370,7 @@
         </is>
       </c>
       <c r="L29" s="19" t="n">
-        <v>3.55</v>
+        <v>0.15</v>
       </c>
       <c r="M29" s="10" t="inlineStr">
         <is>
@@ -3208,7 +3378,7 @@
         </is>
       </c>
       <c r="N29" s="19" t="n">
-        <v>3.71</v>
+        <v>0.16</v>
       </c>
       <c r="O29" s="10" t="inlineStr">
         <is>
@@ -3216,27 +3386,35 @@
         </is>
       </c>
       <c r="P29" s="19" t="n">
-        <v>4.33</v>
+        <v>0.17</v>
       </c>
       <c r="Q29" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R29" s="19" t="n">
-        <v>5.62</v>
+      <c r="R29" s="26" t="n">
+        <v>0.2</v>
       </c>
       <c r="S29" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T29" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T29" s="19" t="n">
+        <v>0.28</v>
       </c>
       <c r="U29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V29" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W29" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3249,15 +3427,15 @@
         </is>
       </c>
       <c r="B30" s="20" t="n">
-        <v>1513.55</v>
+        <v>76.38</v>
       </c>
       <c r="C30" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D30" s="30" t="n">
-        <v>1601.1</v>
+      <c r="D30" s="20" t="n">
+        <v>79.88</v>
       </c>
       <c r="E30" s="11" t="inlineStr">
         <is>
@@ -3265,7 +3443,7 @@
         </is>
       </c>
       <c r="F30" s="20" t="n">
-        <v>1625.77</v>
+        <v>84.48</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -3273,7 +3451,7 @@
         </is>
       </c>
       <c r="H30" s="20" t="n">
-        <v>1656.96</v>
+        <v>92.53</v>
       </c>
       <c r="I30" s="11" t="inlineStr">
         <is>
@@ -3281,7 +3459,7 @@
         </is>
       </c>
       <c r="J30" s="20" t="n">
-        <v>1520.02</v>
+        <v>94.11</v>
       </c>
       <c r="K30" s="11" t="inlineStr">
         <is>
@@ -3289,7 +3467,7 @@
         </is>
       </c>
       <c r="L30" s="20" t="n">
-        <v>1492.81</v>
+        <v>91.01</v>
       </c>
       <c r="M30" s="11" t="inlineStr">
         <is>
@@ -3297,7 +3475,7 @@
         </is>
       </c>
       <c r="N30" s="20" t="n">
-        <v>1424.16</v>
+        <v>89.31</v>
       </c>
       <c r="O30" s="11" t="inlineStr">
         <is>
@@ -3305,7 +3483,7 @@
         </is>
       </c>
       <c r="P30" s="20" t="n">
-        <v>1398.19</v>
+        <v>83.22</v>
       </c>
       <c r="Q30" s="11" t="inlineStr">
         <is>
@@ -3313,19 +3491,27 @@
         </is>
       </c>
       <c r="R30" s="20" t="n">
-        <v>1253.16</v>
+        <v>80.96</v>
       </c>
       <c r="S30" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T30" s="20" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="U30" s="11" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
-      <c r="T30" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="U30" s="11" t="inlineStr">
+      <c r="V30" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W30" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3337,24 +3523,24 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="B31" s="19" t="n">
-        <v>61.69</v>
+      <c r="B31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="19" t="n">
-        <v>57.78</v>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>n</t>
         </is>
       </c>
       <c r="F31" s="19" t="n">
-        <v>57.21</v>
+        <v>1.99</v>
       </c>
       <c r="G31" s="10" t="inlineStr">
         <is>
@@ -3362,51 +3548,51 @@
         </is>
       </c>
       <c r="H31" s="19" t="n">
-        <v>55.15</v>
+        <v>1.99</v>
       </c>
       <c r="I31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J31" s="19" t="n">
-        <v>53.97</v>
+      <c r="J31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="K31" s="10" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L31" s="19" t="n">
-        <v>49.35</v>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="L31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="M31" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>n</t>
         </is>
       </c>
       <c r="N31" s="26" t="n">
-        <v>47.2</v>
+        <v>0.0</v>
       </c>
       <c r="O31" s="10" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P31" s="19" t="n">
-        <v>45.25</v>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="P31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q31" s="10" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R31" s="19" t="n">
-        <v>44.48</v>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="R31" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="S31" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>n</t>
         </is>
       </c>
       <c r="T31" s="26" t="n">
@@ -3417,6 +3603,14 @@
           <t>n</t>
         </is>
       </c>
+      <c r="V31" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
@@ -3424,16 +3618,16 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B32" s="30" t="n">
-        <v>4918.0</v>
+      <c r="B32" s="20" t="n">
+        <v>73.87</v>
       </c>
       <c r="C32" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D32" s="30" t="n">
-        <v>4922.6</v>
+      <c r="D32" s="20" t="n">
+        <v>75.31</v>
       </c>
       <c r="E32" s="11" t="inlineStr">
         <is>
@@ -3441,7 +3635,7 @@
         </is>
       </c>
       <c r="F32" s="30" t="n">
-        <v>4833.0</v>
+        <v>86.8</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -3449,15 +3643,15 @@
         </is>
       </c>
       <c r="H32" s="20" t="n">
-        <v>5339.04</v>
+        <v>87.94</v>
       </c>
       <c r="I32" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J32" s="20" t="n">
-        <v>4596.41</v>
+      <c r="J32" s="30" t="n">
+        <v>92.5</v>
       </c>
       <c r="K32" s="11" t="inlineStr">
         <is>
@@ -3465,15 +3659,15 @@
         </is>
       </c>
       <c r="L32" s="20" t="n">
-        <v>5327.56</v>
+        <v>92.18</v>
       </c>
       <c r="M32" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N32" s="20" t="n">
-        <v>5267.01</v>
+      <c r="N32" s="30" t="n">
+        <v>97.4</v>
       </c>
       <c r="O32" s="11" t="inlineStr">
         <is>
@@ -3481,7 +3675,7 @@
         </is>
       </c>
       <c r="P32" s="20" t="n">
-        <v>5597.23</v>
+        <v>96.53</v>
       </c>
       <c r="Q32" s="11" t="inlineStr">
         <is>
@@ -3489,19 +3683,27 @@
         </is>
       </c>
       <c r="R32" s="20" t="n">
-        <v>4782.05</v>
+        <v>104.02</v>
       </c>
       <c r="S32" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T32" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T32" s="20" t="n">
+        <v>92.84</v>
       </c>
       <c r="U32" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V32" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W32" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3514,7 +3716,7 @@
         </is>
       </c>
       <c r="B33" s="19" t="n">
-        <v>689.12</v>
+        <v>15.63</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
@@ -3522,7 +3724,7 @@
         </is>
       </c>
       <c r="D33" s="19" t="n">
-        <v>560.24</v>
+        <v>15.92</v>
       </c>
       <c r="E33" s="10" t="inlineStr">
         <is>
@@ -3530,7 +3732,7 @@
         </is>
       </c>
       <c r="F33" s="19" t="n">
-        <v>615.79</v>
+        <v>15.67</v>
       </c>
       <c r="G33" s="10" t="inlineStr">
         <is>
@@ -3538,7 +3740,7 @@
         </is>
       </c>
       <c r="H33" s="19" t="n">
-        <v>597.84</v>
+        <v>17.33</v>
       </c>
       <c r="I33" s="10" t="inlineStr">
         <is>
@@ -3546,7 +3748,7 @@
         </is>
       </c>
       <c r="J33" s="19" t="n">
-        <v>562.61</v>
+        <v>17.78</v>
       </c>
       <c r="K33" s="10" t="inlineStr">
         <is>
@@ -3554,15 +3756,15 @@
         </is>
       </c>
       <c r="L33" s="19" t="n">
-        <v>611.45</v>
+        <v>17.64</v>
       </c>
       <c r="M33" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N33" s="19" t="n">
-        <v>645.16</v>
+      <c r="N33" s="26" t="n">
+        <v>18.0</v>
       </c>
       <c r="O33" s="10" t="inlineStr">
         <is>
@@ -3570,7 +3772,7 @@
         </is>
       </c>
       <c r="P33" s="19" t="n">
-        <v>675.01</v>
+        <v>18.22</v>
       </c>
       <c r="Q33" s="10" t="inlineStr">
         <is>
@@ -3578,19 +3780,27 @@
         </is>
       </c>
       <c r="R33" s="19" t="n">
-        <v>674.34</v>
+        <v>18.74</v>
       </c>
       <c r="S33" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T33" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T33" s="19" t="n">
+        <v>18.48</v>
       </c>
       <c r="U33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V33" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W33" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3603,7 +3813,7 @@
         </is>
       </c>
       <c r="B34" s="30" t="n">
-        <v>5639.3</v>
+        <v>187.8</v>
       </c>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -3611,15 +3821,15 @@
         </is>
       </c>
       <c r="D34" s="30" t="n">
-        <v>4823.7</v>
+        <v>184.4</v>
       </c>
       <c r="E34" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F34" s="20" t="n">
-        <v>5634.31</v>
+      <c r="F34" s="30" t="n">
+        <v>188.8</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -3627,7 +3837,7 @@
         </is>
       </c>
       <c r="H34" s="20" t="n">
-        <v>5733.91</v>
+        <v>217.44</v>
       </c>
       <c r="I34" s="11" t="inlineStr">
         <is>
@@ -3635,15 +3845,15 @@
         </is>
       </c>
       <c r="J34" s="20" t="n">
-        <v>5284.71</v>
+        <v>191.98</v>
       </c>
       <c r="K34" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L34" s="30" t="n">
-        <v>5036.0</v>
+      <c r="L34" s="20" t="n">
+        <v>190.39</v>
       </c>
       <c r="M34" s="11" t="inlineStr">
         <is>
@@ -3651,7 +3861,7 @@
         </is>
       </c>
       <c r="N34" s="30" t="n">
-        <v>5189.6</v>
+        <v>190.1</v>
       </c>
       <c r="O34" s="11" t="inlineStr">
         <is>
@@ -3659,7 +3869,7 @@
         </is>
       </c>
       <c r="P34" s="30" t="n">
-        <v>5285.4</v>
+        <v>175.8</v>
       </c>
       <c r="Q34" s="11" t="inlineStr">
         <is>
@@ -3667,19 +3877,27 @@
         </is>
       </c>
       <c r="R34" s="30" t="n">
-        <v>5321.7</v>
+        <v>172.9</v>
       </c>
       <c r="S34" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T34" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T34" s="30" t="n">
+        <v>160.0</v>
       </c>
       <c r="U34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V34" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W34" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3691,8 +3909,8 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B35" s="26" t="n">
-        <v>2284.2</v>
+      <c r="B35" s="19" t="n">
+        <v>48.45</v>
       </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
@@ -3700,7 +3918,7 @@
         </is>
       </c>
       <c r="D35" s="26" t="n">
-        <v>2214.7</v>
+        <v>53.3</v>
       </c>
       <c r="E35" s="10" t="inlineStr">
         <is>
@@ -3708,7 +3926,7 @@
         </is>
       </c>
       <c r="F35" s="19" t="n">
-        <v>2523.39</v>
+        <v>51.19</v>
       </c>
       <c r="G35" s="10" t="inlineStr">
         <is>
@@ -3716,7 +3934,7 @@
         </is>
       </c>
       <c r="H35" s="19" t="n">
-        <v>2577.16</v>
+        <v>52.43</v>
       </c>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -3724,15 +3942,15 @@
         </is>
       </c>
       <c r="J35" s="19" t="n">
-        <v>2111.59</v>
+        <v>53.88</v>
       </c>
       <c r="K35" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L35" s="19" t="n">
-        <v>2344.62</v>
+      <c r="L35" s="26" t="n">
+        <v>47.8</v>
       </c>
       <c r="M35" s="10" t="inlineStr">
         <is>
@@ -3740,7 +3958,7 @@
         </is>
       </c>
       <c r="N35" s="19" t="n">
-        <v>2492.11</v>
+        <v>50.48</v>
       </c>
       <c r="O35" s="10" t="inlineStr">
         <is>
@@ -3748,27 +3966,35 @@
         </is>
       </c>
       <c r="P35" s="19" t="n">
-        <v>2929.63</v>
+        <v>59.25</v>
       </c>
       <c r="Q35" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R35" s="19" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="S35" s="10" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="R35" s="19" t="n">
-        <v>2350.64</v>
-      </c>
-      <c r="S35" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T35" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T35" s="19" t="n">
+        <v>56.11</v>
       </c>
       <c r="U35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V35" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W35" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3781,7 +4007,7 @@
         </is>
       </c>
       <c r="B36" s="20" t="n">
-        <v>2644.59</v>
+        <v>166.06</v>
       </c>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -3789,7 +4015,7 @@
         </is>
       </c>
       <c r="D36" s="20" t="n">
-        <v>2491.31</v>
+        <v>149.76</v>
       </c>
       <c r="E36" s="11" t="inlineStr">
         <is>
@@ -3797,15 +4023,15 @@
         </is>
       </c>
       <c r="F36" s="20" t="n">
-        <v>2276.89</v>
+        <v>150.57</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H36" s="20" t="n">
-        <v>2471.26</v>
+      <c r="H36" s="30" t="n">
+        <v>141.5</v>
       </c>
       <c r="I36" s="11" t="inlineStr">
         <is>
@@ -3813,7 +4039,7 @@
         </is>
       </c>
       <c r="J36" s="20" t="n">
-        <v>2614.96</v>
+        <v>138.56</v>
       </c>
       <c r="K36" s="11" t="inlineStr">
         <is>
@@ -3821,7 +4047,7 @@
         </is>
       </c>
       <c r="L36" s="20" t="n">
-        <v>2383.53</v>
+        <v>140.35</v>
       </c>
       <c r="M36" s="11" t="inlineStr">
         <is>
@@ -3829,7 +4055,7 @@
         </is>
       </c>
       <c r="N36" s="20" t="n">
-        <v>2303.25</v>
+        <v>143.31</v>
       </c>
       <c r="O36" s="11" t="inlineStr">
         <is>
@@ -3837,7 +4063,7 @@
         </is>
       </c>
       <c r="P36" s="20" t="n">
-        <v>2323.37</v>
+        <v>113.02</v>
       </c>
       <c r="Q36" s="11" t="inlineStr">
         <is>
@@ -3845,19 +4071,27 @@
         </is>
       </c>
       <c r="R36" s="20" t="n">
-        <v>1340.49</v>
+        <v>113.15</v>
       </c>
       <c r="S36" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T36" s="30" t="n">
+        <v>93.1</v>
       </c>
       <c r="U36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W36" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3869,10 +4103,8 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B37" s="19" t="n">
+        <v>4.93</v>
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
@@ -3880,7 +4112,7 @@
         </is>
       </c>
       <c r="D37" s="19" t="n">
-        <v>95.55</v>
+        <v>5.14</v>
       </c>
       <c r="E37" s="10" t="inlineStr">
         <is>
@@ -3888,7 +4120,7 @@
         </is>
       </c>
       <c r="F37" s="26" t="n">
-        <v>105.9</v>
+        <v>5.0</v>
       </c>
       <c r="G37" s="10" t="inlineStr">
         <is>
@@ -3896,7 +4128,7 @@
         </is>
       </c>
       <c r="H37" s="19" t="n">
-        <v>96.35</v>
+        <v>5.52</v>
       </c>
       <c r="I37" s="10" t="inlineStr">
         <is>
@@ -3904,7 +4136,7 @@
         </is>
       </c>
       <c r="J37" s="19" t="n">
-        <v>100.57</v>
+        <v>5.43</v>
       </c>
       <c r="K37" s="10" t="inlineStr">
         <is>
@@ -3912,7 +4144,7 @@
         </is>
       </c>
       <c r="L37" s="19" t="n">
-        <v>120.12</v>
+        <v>5.25</v>
       </c>
       <c r="M37" s="10" t="inlineStr">
         <is>
@@ -3920,7 +4152,7 @@
         </is>
       </c>
       <c r="N37" s="19" t="n">
-        <v>135.24</v>
+        <v>6.43</v>
       </c>
       <c r="O37" s="10" t="inlineStr">
         <is>
@@ -3928,7 +4160,7 @@
         </is>
       </c>
       <c r="P37" s="19" t="n">
-        <v>114.96</v>
+        <v>6.98</v>
       </c>
       <c r="Q37" s="10" t="inlineStr">
         <is>
@@ -3936,19 +4168,27 @@
         </is>
       </c>
       <c r="R37" s="19" t="n">
-        <v>90.65</v>
+        <v>6.22</v>
       </c>
       <c r="S37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T37" s="19" t="n">
+        <v>6.09</v>
       </c>
       <c r="U37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3961,7 +4201,7 @@
         </is>
       </c>
       <c r="B38" s="20" t="n">
-        <v>108.33</v>
+        <v>7.84</v>
       </c>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -3969,7 +4209,7 @@
         </is>
       </c>
       <c r="D38" s="20" t="n">
-        <v>92.97</v>
+        <v>7.11</v>
       </c>
       <c r="E38" s="11" t="inlineStr">
         <is>
@@ -3977,7 +4217,7 @@
         </is>
       </c>
       <c r="F38" s="20" t="n">
-        <v>115.84</v>
+        <v>7.88</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -3985,7 +4225,7 @@
         </is>
       </c>
       <c r="H38" s="20" t="n">
-        <v>96.18</v>
+        <v>8.45</v>
       </c>
       <c r="I38" s="11" t="inlineStr">
         <is>
@@ -3993,51 +4233,59 @@
         </is>
       </c>
       <c r="J38" s="20" t="n">
-        <v>105.59</v>
+        <v>6.24</v>
       </c>
       <c r="K38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L38" s="30" t="n">
-        <v>125.7</v>
+      <c r="L38" s="20" t="n">
+        <v>5.97</v>
       </c>
       <c r="M38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N38" s="20" t="n">
-        <v>123.32</v>
+      <c r="N38" s="30" t="n">
+        <v>7.0</v>
       </c>
       <c r="O38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P38" s="30" t="n">
-        <v>147.8</v>
+      <c r="P38" s="20" t="n">
+        <v>6.58</v>
       </c>
       <c r="Q38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R38" s="20" t="n">
-        <v>133.55</v>
+      <c r="R38" s="30" t="n">
+        <v>7.8</v>
       </c>
       <c r="S38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T38" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T38" s="20" t="n">
+        <v>8.09</v>
       </c>
       <c r="U38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V38" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W38" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4050,7 +4298,7 @@
         </is>
       </c>
       <c r="B39" s="19" t="n">
-        <v>259.21</v>
+        <v>13.72</v>
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
@@ -4058,7 +4306,7 @@
         </is>
       </c>
       <c r="D39" s="19" t="n">
-        <v>260.91</v>
+        <v>15.13</v>
       </c>
       <c r="E39" s="10" t="inlineStr">
         <is>
@@ -4066,7 +4314,7 @@
         </is>
       </c>
       <c r="F39" s="19" t="n">
-        <v>272.95</v>
+        <v>10.23</v>
       </c>
       <c r="G39" s="10" t="inlineStr">
         <is>
@@ -4074,7 +4322,7 @@
         </is>
       </c>
       <c r="H39" s="19" t="n">
-        <v>267.35</v>
+        <v>11.24</v>
       </c>
       <c r="I39" s="10" t="inlineStr">
         <is>
@@ -4082,7 +4330,7 @@
         </is>
       </c>
       <c r="J39" s="19" t="n">
-        <v>265.17</v>
+        <v>12.28</v>
       </c>
       <c r="K39" s="10" t="inlineStr">
         <is>
@@ -4090,7 +4338,7 @@
         </is>
       </c>
       <c r="L39" s="19" t="n">
-        <v>293.03</v>
+        <v>12.24</v>
       </c>
       <c r="M39" s="10" t="inlineStr">
         <is>
@@ -4098,15 +4346,15 @@
         </is>
       </c>
       <c r="N39" s="19" t="n">
-        <v>295.73</v>
+        <v>12.12</v>
       </c>
       <c r="O39" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P39" s="26" t="n">
-        <v>283.0</v>
+      <c r="P39" s="19" t="n">
+        <v>12.29</v>
       </c>
       <c r="Q39" s="10" t="inlineStr">
         <is>
@@ -4114,19 +4362,27 @@
         </is>
       </c>
       <c r="R39" s="19" t="n">
-        <v>288.22</v>
+        <v>11.95</v>
       </c>
       <c r="S39" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T39" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T39" s="19" t="n">
+        <v>11.02</v>
       </c>
       <c r="U39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V39" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W39" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4139,7 +4395,7 @@
         </is>
       </c>
       <c r="B40" s="20" t="n">
-        <v>377.73</v>
+        <v>17.13</v>
       </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
@@ -4147,7 +4403,7 @@
         </is>
       </c>
       <c r="D40" s="20" t="n">
-        <v>380.55</v>
+        <v>18.25</v>
       </c>
       <c r="E40" s="11" t="inlineStr">
         <is>
@@ -4155,7 +4411,7 @@
         </is>
       </c>
       <c r="F40" s="20" t="n">
-        <v>372.39</v>
+        <v>18.25</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -4163,7 +4419,7 @@
         </is>
       </c>
       <c r="H40" s="30" t="n">
-        <v>341.6</v>
+        <v>17.7</v>
       </c>
       <c r="I40" s="11" t="inlineStr">
         <is>
@@ -4171,7 +4427,7 @@
         </is>
       </c>
       <c r="J40" s="20" t="n">
-        <v>307.09</v>
+        <v>10.79</v>
       </c>
       <c r="K40" s="11" t="inlineStr">
         <is>
@@ -4179,23 +4435,23 @@
         </is>
       </c>
       <c r="L40" s="20" t="n">
-        <v>344.75</v>
+        <v>11.85</v>
       </c>
       <c r="M40" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N40" s="30" t="n">
-        <v>393.1</v>
+      <c r="N40" s="20" t="n">
+        <v>13.09</v>
       </c>
       <c r="O40" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P40" s="20" t="n">
-        <v>407.31</v>
+      <c r="P40" s="30" t="n">
+        <v>14.7</v>
       </c>
       <c r="Q40" s="11" t="inlineStr">
         <is>
@@ -4203,19 +4459,27 @@
         </is>
       </c>
       <c r="R40" s="20" t="n">
-        <v>383.87</v>
+        <v>15.48</v>
       </c>
       <c r="S40" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T40" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T40" s="20" t="n">
+        <v>16.03</v>
       </c>
       <c r="U40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W40" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4227,18 +4491,18 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B41" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="C41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D41" s="19" t="n">
-        <v>2.37</v>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E41" s="10" t="inlineStr">
         <is>
@@ -4246,7 +4510,7 @@
         </is>
       </c>
       <c r="F41" s="19" t="n">
-        <v>3.79</v>
+        <v>1.02</v>
       </c>
       <c r="G41" s="10" t="inlineStr">
         <is>
@@ -4254,7 +4518,7 @@
         </is>
       </c>
       <c r="H41" s="19" t="n">
-        <v>4.65</v>
+        <v>0.35</v>
       </c>
       <c r="I41" s="10" t="inlineStr">
         <is>
@@ -4262,15 +4526,15 @@
         </is>
       </c>
       <c r="J41" s="19" t="n">
-        <v>5.09</v>
+        <v>0.05</v>
       </c>
       <c r="K41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L41" s="26" t="n">
-        <v>6.3</v>
+      <c r="L41" s="19" t="n">
+        <v>0.15</v>
       </c>
       <c r="M41" s="10" t="inlineStr">
         <is>
@@ -4278,7 +4542,7 @@
         </is>
       </c>
       <c r="N41" s="19" t="n">
-        <v>4.98</v>
+        <v>0.39</v>
       </c>
       <c r="O41" s="10" t="inlineStr">
         <is>
@@ -4286,27 +4550,35 @@
         </is>
       </c>
       <c r="P41" s="19" t="n">
-        <v>5.45</v>
+        <v>0.51</v>
       </c>
       <c r="Q41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="R41" s="19" t="n">
-        <v>5.72</v>
+      <c r="R41" s="26" t="n">
+        <v>0.5</v>
       </c>
       <c r="S41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T41" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T41" s="19" t="n">
+        <v>0.13</v>
       </c>
       <c r="U41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4318,20 +4590,16 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="B42" s="20" t="n">
+        <v>8.18</v>
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D42" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="D42" s="20" t="n">
+        <v>8.59</v>
       </c>
       <c r="E42" s="11" t="inlineStr">
         <is>
@@ -4414,6 +4682,16 @@
         </is>
       </c>
       <c r="U42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W42" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4435,14 +4713,12 @@
           <t/>
         </is>
       </c>
-      <c r="D43" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="D43" s="19" t="n">
+        <v>15.95</v>
       </c>
       <c r="E43" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>e</t>
         </is>
       </c>
       <c r="F43" s="10" t="inlineStr">
@@ -4456,7 +4732,7 @@
         </is>
       </c>
       <c r="H43" s="19" t="n">
-        <v>401.45</v>
+        <v>16.02</v>
       </c>
       <c r="I43" s="10" t="inlineStr">
         <is>
@@ -4464,15 +4740,15 @@
         </is>
       </c>
       <c r="J43" s="19" t="n">
-        <v>402.33</v>
+        <v>13.69</v>
       </c>
       <c r="K43" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L43" s="19" t="n">
-        <v>367.02</v>
+      <c r="L43" s="26" t="n">
+        <v>13.6</v>
       </c>
       <c r="M43" s="10" t="inlineStr">
         <is>
@@ -4480,17 +4756,15 @@
         </is>
       </c>
       <c r="N43" s="19" t="n">
-        <v>410.63</v>
+        <v>13.53</v>
       </c>
       <c r="O43" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P43" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="P43" s="19" t="n">
+        <v>14.54</v>
       </c>
       <c r="Q43" s="10" t="inlineStr">
         <is>
@@ -4513,6 +4787,16 @@
         </is>
       </c>
       <c r="U43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V43" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W43" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4524,8 +4808,10 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B44" s="30" t="n">
-        <v>2477.0</v>
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
@@ -4533,15 +4819,15 @@
         </is>
       </c>
       <c r="D44" s="30" t="n">
-        <v>2613.5</v>
+        <v>115.0</v>
       </c>
       <c r="E44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F44" s="30" t="n">
-        <v>2445.5</v>
+      <c r="F44" s="20" t="n">
+        <v>113.14</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -4549,7 +4835,7 @@
         </is>
       </c>
       <c r="H44" s="30" t="n">
-        <v>2630.7</v>
+        <v>109.1</v>
       </c>
       <c r="I44" s="11" t="inlineStr">
         <is>
@@ -4557,25 +4843,23 @@
         </is>
       </c>
       <c r="J44" s="30" t="n">
-        <v>2465.3</v>
+        <v>114.4</v>
       </c>
       <c r="K44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L44" s="30" t="n">
-        <v>2433.1</v>
+      <c r="L44" s="20" t="n">
+        <v>112.68</v>
       </c>
       <c r="M44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="N44" s="20" t="n">
+        <v>114.07</v>
       </c>
       <c r="O44" s="11" t="inlineStr">
         <is>
@@ -4608,6 +4892,16 @@
         </is>
       </c>
       <c r="U44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4620,7 +4914,7 @@
         </is>
       </c>
       <c r="B45" s="19" t="n">
-        <v>228.59</v>
+        <v>27.81</v>
       </c>
       <c r="C45" s="10" t="inlineStr">
         <is>
@@ -4628,7 +4922,7 @@
         </is>
       </c>
       <c r="D45" s="19" t="n">
-        <v>280.43</v>
+        <v>25.84</v>
       </c>
       <c r="E45" s="10" t="inlineStr">
         <is>
@@ -4636,7 +4930,7 @@
         </is>
       </c>
       <c r="F45" s="19" t="n">
-        <v>361.36</v>
+        <v>27.74</v>
       </c>
       <c r="G45" s="10" t="inlineStr">
         <is>
@@ -4644,7 +4938,7 @@
         </is>
       </c>
       <c r="H45" s="19" t="n">
-        <v>291.51</v>
+        <v>31.24</v>
       </c>
       <c r="I45" s="10" t="inlineStr">
         <is>
@@ -4652,7 +4946,7 @@
         </is>
       </c>
       <c r="J45" s="19" t="n">
-        <v>298.67</v>
+        <v>27.71</v>
       </c>
       <c r="K45" s="10" t="inlineStr">
         <is>
@@ -4660,7 +4954,7 @@
         </is>
       </c>
       <c r="L45" s="19" t="n">
-        <v>298.83</v>
+        <v>27.62</v>
       </c>
       <c r="M45" s="10" t="inlineStr">
         <is>
@@ -4668,7 +4962,7 @@
         </is>
       </c>
       <c r="N45" s="19" t="n">
-        <v>323.72</v>
+        <v>26.63</v>
       </c>
       <c r="O45" s="10" t="inlineStr">
         <is>
@@ -4676,21 +4970,19 @@
         </is>
       </c>
       <c r="P45" s="19" t="n">
-        <v>292.72</v>
+        <v>29.69</v>
       </c>
       <c r="Q45" s="10" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="R45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="R45" s="19" t="n">
+        <v>27.23</v>
       </c>
       <c r="S45" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>e</t>
         </is>
       </c>
       <c r="T45" s="10" t="inlineStr">
@@ -4699,6 +4991,16 @@
         </is>
       </c>
       <c r="U45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4711,7 +5013,7 @@
         </is>
       </c>
       <c r="B46" s="20" t="n">
-        <v>32.91</v>
+        <v>0.94</v>
       </c>
       <c r="C46" s="11" t="inlineStr">
         <is>
@@ -4719,77 +5021,85 @@
         </is>
       </c>
       <c r="D46" s="20" t="n">
-        <v>40.93</v>
+        <v>1.06</v>
       </c>
       <c r="E46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F46" s="20" t="n">
-        <v>41.76</v>
+      <c r="F46" s="30" t="n">
+        <v>1.2</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H46" s="20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I46" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="H46" s="20" t="n">
-        <v>41.21</v>
-      </c>
-      <c r="I46" s="11" t="inlineStr">
+      <c r="J46" s="20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K46" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="J46" s="20" t="n">
-        <v>42.33</v>
-      </c>
-      <c r="K46" s="11" t="inlineStr">
+      <c r="L46" s="20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M46" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="L46" s="20" t="n">
-        <v>40.12</v>
-      </c>
-      <c r="M46" s="11" t="inlineStr">
+      <c r="N46" s="20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O46" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="N46" s="20" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="O46" s="11" t="inlineStr">
+      <c r="P46" s="20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q46" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="P46" s="20" t="n">
-        <v>40.93</v>
-      </c>
-      <c r="Q46" s="11" t="inlineStr">
+      <c r="R46" s="20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S46" s="11" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="R46" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="S46" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T46" s="11" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
       <c r="U46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4802,15 +5112,15 @@
         </is>
       </c>
       <c r="B47" s="19" t="n">
-        <v>775.79</v>
+        <v>35.02</v>
       </c>
       <c r="C47" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D47" s="26" t="n">
-        <v>844.9</v>
+      <c r="D47" s="19" t="n">
+        <v>36.35</v>
       </c>
       <c r="E47" s="10" t="inlineStr">
         <is>
@@ -4818,7 +5128,7 @@
         </is>
       </c>
       <c r="F47" s="19" t="n">
-        <v>810.03</v>
+        <v>36.24</v>
       </c>
       <c r="G47" s="10" t="inlineStr">
         <is>
@@ -4826,7 +5136,7 @@
         </is>
       </c>
       <c r="H47" s="19" t="n">
-        <v>769.64</v>
+        <v>35.69</v>
       </c>
       <c r="I47" s="10" t="inlineStr">
         <is>
@@ -4834,7 +5144,7 @@
         </is>
       </c>
       <c r="J47" s="19" t="n">
-        <v>792.89</v>
+        <v>35.86</v>
       </c>
       <c r="K47" s="10" t="inlineStr">
         <is>
@@ -4842,15 +5152,15 @@
         </is>
       </c>
       <c r="L47" s="19" t="n">
-        <v>772.66</v>
+        <v>36.19</v>
       </c>
       <c r="M47" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N47" s="26" t="n">
-        <v>794.2</v>
+      <c r="N47" s="19" t="n">
+        <v>36.17</v>
       </c>
       <c r="O47" s="10" t="inlineStr">
         <is>
@@ -4858,27 +5168,35 @@
         </is>
       </c>
       <c r="P47" s="19" t="n">
-        <v>797.96</v>
+        <v>35.89</v>
       </c>
       <c r="Q47" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R47" s="19" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="S47" s="10" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="R47" s="19" t="n">
-        <v>803.09</v>
-      </c>
-      <c r="S47" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T47" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T47" s="19" t="n">
+        <v>35.91</v>
       </c>
       <c r="U47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W47" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4890,26 +5208,26 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B48" s="30" t="n">
-        <v>950.0</v>
+      <c r="B48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D48" s="30" t="n">
-        <v>1030.0</v>
+      <c r="D48" s="20" t="n">
+        <v>36.57</v>
       </c>
       <c r="E48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="F48" s="20" t="n">
+        <v>37.14</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -4956,8 +5274,10 @@
           <t/>
         </is>
       </c>
-      <c r="P48" s="20" t="n">
-        <v>1338.21</v>
+      <c r="P48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="Q48" s="11" t="inlineStr">
         <is>
@@ -4965,19 +5285,27 @@
         </is>
       </c>
       <c r="R48" s="20" t="n">
-        <v>1357.82</v>
+        <v>43.01</v>
       </c>
       <c r="S48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T48" s="30" t="n">
+        <v>43.6</v>
       </c>
       <c r="U48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4990,7 +5318,7 @@
         </is>
       </c>
       <c r="B49" s="19" t="n">
-        <v>912.54</v>
+        <v>63.26</v>
       </c>
       <c r="C49" s="10" t="inlineStr">
         <is>
@@ -4998,7 +5326,7 @@
         </is>
       </c>
       <c r="D49" s="19" t="n">
-        <v>1060.73</v>
+        <v>63.09</v>
       </c>
       <c r="E49" s="10" t="inlineStr">
         <is>
@@ -5006,7 +5334,7 @@
         </is>
       </c>
       <c r="F49" s="19" t="n">
-        <v>1133.14</v>
+        <v>68.65</v>
       </c>
       <c r="G49" s="10" t="inlineStr">
         <is>
@@ -5014,7 +5342,7 @@
         </is>
       </c>
       <c r="H49" s="19" t="n">
-        <v>1086.62</v>
+        <v>69.22</v>
       </c>
       <c r="I49" s="10" t="inlineStr">
         <is>
@@ -5022,15 +5350,15 @@
         </is>
       </c>
       <c r="J49" s="19" t="n">
-        <v>829.82</v>
+        <v>72.72</v>
       </c>
       <c r="K49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L49" s="26" t="n">
-        <v>738.5</v>
+      <c r="L49" s="19" t="n">
+        <v>55.95</v>
       </c>
       <c r="M49" s="10" t="inlineStr">
         <is>
@@ -5038,15 +5366,15 @@
         </is>
       </c>
       <c r="N49" s="26" t="n">
-        <v>720.1</v>
+        <v>53.2</v>
       </c>
       <c r="O49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P49" s="19" t="n">
-        <v>795.73</v>
+      <c r="P49" s="26" t="n">
+        <v>53.3</v>
       </c>
       <c r="Q49" s="10" t="inlineStr">
         <is>
@@ -5054,19 +5382,27 @@
         </is>
       </c>
       <c r="R49" s="19" t="n">
-        <v>815.75</v>
+        <v>52.88</v>
       </c>
       <c r="S49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T49" s="26" t="n">
+        <v>52.9</v>
       </c>
       <c r="U49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5079,7 +5415,7 @@
         </is>
       </c>
       <c r="B50" s="30" t="n">
-        <v>3419.0</v>
+        <v>870.0</v>
       </c>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -5087,7 +5423,7 @@
         </is>
       </c>
       <c r="D50" s="30" t="n">
-        <v>29552.0</v>
+        <v>8484.0</v>
       </c>
       <c r="E50" s="11" t="inlineStr">
         <is>
@@ -5095,7 +5431,7 @@
         </is>
       </c>
       <c r="F50" s="30" t="n">
-        <v>30267.0</v>
+        <v>849.0</v>
       </c>
       <c r="G50" s="11" t="inlineStr">
         <is>
@@ -5103,7 +5439,7 @@
         </is>
       </c>
       <c r="H50" s="30" t="n">
-        <v>30826.0</v>
+        <v>847.0</v>
       </c>
       <c r="I50" s="11" t="inlineStr">
         <is>
@@ -5111,7 +5447,7 @@
         </is>
       </c>
       <c r="J50" s="30" t="n">
-        <v>29987.0</v>
+        <v>840.0</v>
       </c>
       <c r="K50" s="11" t="inlineStr">
         <is>
@@ -5119,7 +5455,7 @@
         </is>
       </c>
       <c r="L50" s="30" t="n">
-        <v>31041.0</v>
+        <v>821.0</v>
       </c>
       <c r="M50" s="11" t="inlineStr">
         <is>
@@ -5127,7 +5463,7 @@
         </is>
       </c>
       <c r="N50" s="30" t="n">
-        <v>31120.0</v>
+        <v>826.0</v>
       </c>
       <c r="O50" s="11" t="inlineStr">
         <is>
@@ -5135,7 +5471,7 @@
         </is>
       </c>
       <c r="P50" s="30" t="n">
-        <v>31691.0</v>
+        <v>822.0</v>
       </c>
       <c r="Q50" s="11" t="inlineStr">
         <is>
@@ -5143,19 +5479,27 @@
         </is>
       </c>
       <c r="R50" s="30" t="n">
-        <v>31525.0</v>
+        <v>815.0</v>
       </c>
       <c r="S50" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T50" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T50" s="30" t="n">
+        <v>777.0</v>
       </c>
       <c r="U50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W50" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5168,15 +5512,15 @@
         </is>
       </c>
       <c r="B51" s="26" t="n">
-        <v>151.2</v>
+        <v>7.2</v>
       </c>
       <c r="C51" s="10" t="inlineStr">
         <is>
-          <t>e</t>
+          <t/>
         </is>
       </c>
       <c r="D51" s="26" t="n">
-        <v>125.2</v>
+        <v>6.1</v>
       </c>
       <c r="E51" s="10" t="inlineStr">
         <is>
@@ -5184,7 +5528,7 @@
         </is>
       </c>
       <c r="F51" s="26" t="n">
-        <v>151.7</v>
+        <v>6.1</v>
       </c>
       <c r="G51" s="10" t="inlineStr">
         <is>
@@ -5192,7 +5536,7 @@
         </is>
       </c>
       <c r="H51" s="26" t="n">
-        <v>147.8</v>
+        <v>6.8</v>
       </c>
       <c r="I51" s="10" t="inlineStr">
         <is>
@@ -5200,7 +5544,7 @@
         </is>
       </c>
       <c r="J51" s="26" t="n">
-        <v>155.3</v>
+        <v>7.0</v>
       </c>
       <c r="K51" s="10" t="inlineStr">
         <is>
@@ -5208,15 +5552,15 @@
         </is>
       </c>
       <c r="L51" s="26" t="n">
-        <v>177.8</v>
+        <v>8.3</v>
       </c>
       <c r="M51" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N51" s="19" t="n">
-        <v>169.44</v>
+      <c r="N51" s="26" t="n">
+        <v>8.9</v>
       </c>
       <c r="O51" s="10" t="inlineStr">
         <is>
@@ -5224,7 +5568,7 @@
         </is>
       </c>
       <c r="P51" s="19" t="n">
-        <v>164.99</v>
+        <v>9.04</v>
       </c>
       <c r="Q51" s="10" t="inlineStr">
         <is>
@@ -5232,19 +5576,27 @@
         </is>
       </c>
       <c r="R51" s="19" t="n">
-        <v>175.56</v>
+        <v>9.11</v>
       </c>
       <c r="S51" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="T51" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="T51" s="19" t="n">
+        <v>9.24</v>
       </c>
       <c r="U51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="W51" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5325,7 +5677,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -5336,6 +5688,7 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
